--- a/raw_files/soil_prop_2.xlsx
+++ b/raw_files/soil_prop_2.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20403"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3502BBF-91D6-432D-9F0F-EDE393CB9190}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6922A143-F90A-4FD5-8DF4-A5F1BEC97773}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="28">
   <si>
     <t>treatment</t>
   </si>
@@ -95,6 +95,15 @@
   </si>
   <si>
     <t>rep</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
 </sst>
 </file>
@@ -417,8 +426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M31" sqref="M31"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -513,8 +522,8 @@
       <c r="M2" s="1">
         <v>1</v>
       </c>
-      <c r="N2" s="1">
-        <v>1</v>
+      <c r="N2" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
@@ -557,8 +566,8 @@
       <c r="M3" s="1">
         <v>2</v>
       </c>
-      <c r="N3" s="1">
-        <v>2</v>
+      <c r="N3" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
@@ -601,8 +610,8 @@
       <c r="M4" s="1">
         <v>3</v>
       </c>
-      <c r="N4" s="1">
-        <v>3</v>
+      <c r="N4" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
@@ -645,8 +654,8 @@
       <c r="M5" s="1">
         <v>4</v>
       </c>
-      <c r="N5" s="1">
-        <v>1</v>
+      <c r="N5" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
@@ -689,8 +698,8 @@
       <c r="M6" s="1">
         <v>5</v>
       </c>
-      <c r="N6" s="1">
-        <v>2</v>
+      <c r="N6" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
@@ -733,8 +742,8 @@
       <c r="M7" s="1">
         <v>6</v>
       </c>
-      <c r="N7" s="1">
-        <v>3</v>
+      <c r="N7" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
@@ -777,8 +786,8 @@
       <c r="M8" s="1">
         <v>7</v>
       </c>
-      <c r="N8" s="1">
-        <v>1</v>
+      <c r="N8" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
@@ -821,8 +830,8 @@
       <c r="M9" s="1">
         <v>8</v>
       </c>
-      <c r="N9" s="1">
-        <v>2</v>
+      <c r="N9" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
@@ -865,8 +874,8 @@
       <c r="M10" s="1">
         <v>9</v>
       </c>
-      <c r="N10" s="1">
-        <v>3</v>
+      <c r="N10" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
@@ -909,8 +918,8 @@
       <c r="M11" s="1">
         <v>10</v>
       </c>
-      <c r="N11" s="1">
-        <v>1</v>
+      <c r="N11" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
@@ -953,8 +962,8 @@
       <c r="M12" s="1">
         <v>11</v>
       </c>
-      <c r="N12" s="1">
-        <v>2</v>
+      <c r="N12" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.35">
@@ -997,8 +1006,8 @@
       <c r="M13" s="1">
         <v>12</v>
       </c>
-      <c r="N13" s="1">
-        <v>3</v>
+      <c r="N13" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
@@ -1041,8 +1050,8 @@
       <c r="M14" s="1">
         <v>13</v>
       </c>
-      <c r="N14" s="1">
-        <v>1</v>
+      <c r="N14" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
@@ -1085,8 +1094,8 @@
       <c r="M15" s="1">
         <v>14</v>
       </c>
-      <c r="N15" s="1">
-        <v>2</v>
+      <c r="N15" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
@@ -1129,8 +1138,8 @@
       <c r="M16" s="1">
         <v>15</v>
       </c>
-      <c r="N16" s="1">
-        <v>3</v>
+      <c r="N16" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.35">
@@ -1173,8 +1182,8 @@
       <c r="M17" s="1">
         <v>16</v>
       </c>
-      <c r="N17" s="1">
-        <v>1</v>
+      <c r="N17" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.35">
@@ -1217,8 +1226,8 @@
       <c r="M18" s="1">
         <v>17</v>
       </c>
-      <c r="N18" s="1">
-        <v>2</v>
+      <c r="N18" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.35">
@@ -1261,8 +1270,8 @@
       <c r="M19" s="1">
         <v>18</v>
       </c>
-      <c r="N19" s="1">
-        <v>3</v>
+      <c r="N19" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.35">
@@ -1305,8 +1314,8 @@
       <c r="M20" s="1">
         <v>19</v>
       </c>
-      <c r="N20" s="1">
-        <v>1</v>
+      <c r="N20" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.35">
@@ -1349,8 +1358,8 @@
       <c r="M21" s="1">
         <v>20</v>
       </c>
-      <c r="N21" s="1">
-        <v>2</v>
+      <c r="N21" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.35">
@@ -1393,8 +1402,8 @@
       <c r="M22" s="1">
         <v>21</v>
       </c>
-      <c r="N22" s="1">
-        <v>3</v>
+      <c r="N22" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.35">
@@ -1437,8 +1446,8 @@
       <c r="M23" s="1">
         <v>1</v>
       </c>
-      <c r="N23" s="1">
-        <v>1</v>
+      <c r="N23" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.35">
@@ -1481,8 +1490,8 @@
       <c r="M24" s="1">
         <v>2</v>
       </c>
-      <c r="N24" s="1">
-        <v>2</v>
+      <c r="N24" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.35">
@@ -1525,8 +1534,8 @@
       <c r="M25" s="1">
         <v>3</v>
       </c>
-      <c r="N25" s="1">
-        <v>3</v>
+      <c r="N25" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.35">
@@ -1569,8 +1578,8 @@
       <c r="M26" s="1">
         <v>4</v>
       </c>
-      <c r="N26" s="1">
-        <v>1</v>
+      <c r="N26" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.35">
@@ -1613,8 +1622,8 @@
       <c r="M27" s="1">
         <v>5</v>
       </c>
-      <c r="N27" s="1">
-        <v>2</v>
+      <c r="N27" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.35">
@@ -1657,8 +1666,8 @@
       <c r="M28" s="1">
         <v>6</v>
       </c>
-      <c r="N28" s="1">
-        <v>3</v>
+      <c r="N28" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.35">
@@ -1701,8 +1710,8 @@
       <c r="M29" s="1">
         <v>7</v>
       </c>
-      <c r="N29" s="1">
-        <v>1</v>
+      <c r="N29" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.35">
@@ -1745,8 +1754,8 @@
       <c r="M30" s="1">
         <v>8</v>
       </c>
-      <c r="N30" s="1">
-        <v>2</v>
+      <c r="N30" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.35">
@@ -1789,8 +1798,8 @@
       <c r="M31" s="1">
         <v>9</v>
       </c>
-      <c r="N31" s="1">
-        <v>3</v>
+      <c r="N31" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.35">
@@ -1833,8 +1842,8 @@
       <c r="M32" s="1">
         <v>10</v>
       </c>
-      <c r="N32" s="1">
-        <v>1</v>
+      <c r="N32" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.35">
@@ -1877,8 +1886,8 @@
       <c r="M33" s="1">
         <v>11</v>
       </c>
-      <c r="N33" s="1">
-        <v>2</v>
+      <c r="N33" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.35">
@@ -1921,8 +1930,8 @@
       <c r="M34" s="1">
         <v>12</v>
       </c>
-      <c r="N34" s="1">
-        <v>3</v>
+      <c r="N34" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.35">
@@ -1965,8 +1974,8 @@
       <c r="M35" s="1">
         <v>13</v>
       </c>
-      <c r="N35" s="1">
-        <v>1</v>
+      <c r="N35" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.35">
@@ -2009,8 +2018,8 @@
       <c r="M36" s="1">
         <v>14</v>
       </c>
-      <c r="N36" s="1">
-        <v>2</v>
+      <c r="N36" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.35">
@@ -2053,8 +2062,8 @@
       <c r="M37" s="1">
         <v>15</v>
       </c>
-      <c r="N37" s="1">
-        <v>3</v>
+      <c r="N37" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.35">
@@ -2097,8 +2106,8 @@
       <c r="M38" s="1">
         <v>16</v>
       </c>
-      <c r="N38" s="1">
-        <v>1</v>
+      <c r="N38" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.35">
@@ -2141,8 +2150,8 @@
       <c r="M39" s="1">
         <v>17</v>
       </c>
-      <c r="N39" s="1">
-        <v>2</v>
+      <c r="N39" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.35">
@@ -2185,8 +2194,8 @@
       <c r="M40" s="1">
         <v>18</v>
       </c>
-      <c r="N40" s="1">
-        <v>3</v>
+      <c r="N40" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.35">
@@ -2229,8 +2238,8 @@
       <c r="M41" s="1">
         <v>19</v>
       </c>
-      <c r="N41" s="1">
-        <v>1</v>
+      <c r="N41" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.35">
@@ -2273,8 +2282,8 @@
       <c r="M42" s="1">
         <v>20</v>
       </c>
-      <c r="N42" s="1">
-        <v>2</v>
+      <c r="N42" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.35">
@@ -2317,8 +2326,8 @@
       <c r="M43" s="1">
         <v>21</v>
       </c>
-      <c r="N43" s="1">
-        <v>3</v>
+      <c r="N43" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.35">
@@ -2361,8 +2370,8 @@
       <c r="M44" s="1">
         <v>1</v>
       </c>
-      <c r="N44" s="1">
-        <v>1</v>
+      <c r="N44" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.35">
@@ -2405,8 +2414,8 @@
       <c r="M45" s="1">
         <v>2</v>
       </c>
-      <c r="N45" s="1">
-        <v>2</v>
+      <c r="N45" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.35">
@@ -2449,8 +2458,8 @@
       <c r="M46" s="1">
         <v>3</v>
       </c>
-      <c r="N46" s="1">
-        <v>3</v>
+      <c r="N46" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.35">
@@ -2493,8 +2502,8 @@
       <c r="M47" s="1">
         <v>4</v>
       </c>
-      <c r="N47" s="1">
-        <v>1</v>
+      <c r="N47" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.35">
@@ -2537,8 +2546,8 @@
       <c r="M48" s="1">
         <v>5</v>
       </c>
-      <c r="N48" s="1">
-        <v>2</v>
+      <c r="N48" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.35">
@@ -2581,8 +2590,8 @@
       <c r="M49" s="1">
         <v>6</v>
       </c>
-      <c r="N49" s="1">
-        <v>3</v>
+      <c r="N49" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.35">
@@ -2625,8 +2634,8 @@
       <c r="M50" s="1">
         <v>7</v>
       </c>
-      <c r="N50" s="1">
-        <v>1</v>
+      <c r="N50" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.35">
@@ -2669,8 +2678,8 @@
       <c r="M51" s="1">
         <v>8</v>
       </c>
-      <c r="N51" s="1">
-        <v>2</v>
+      <c r="N51" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.35">
@@ -2713,8 +2722,8 @@
       <c r="M52" s="1">
         <v>9</v>
       </c>
-      <c r="N52" s="1">
-        <v>3</v>
+      <c r="N52" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.35">
@@ -2757,8 +2766,8 @@
       <c r="M53" s="1">
         <v>10</v>
       </c>
-      <c r="N53" s="1">
-        <v>1</v>
+      <c r="N53" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.35">
@@ -2801,8 +2810,8 @@
       <c r="M54" s="1">
         <v>11</v>
       </c>
-      <c r="N54" s="1">
-        <v>2</v>
+      <c r="N54" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.35">
@@ -2845,8 +2854,8 @@
       <c r="M55" s="1">
         <v>12</v>
       </c>
-      <c r="N55" s="1">
-        <v>3</v>
+      <c r="N55" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.35">
@@ -2889,8 +2898,8 @@
       <c r="M56" s="1">
         <v>13</v>
       </c>
-      <c r="N56" s="1">
-        <v>1</v>
+      <c r="N56" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.35">
@@ -2933,8 +2942,8 @@
       <c r="M57" s="1">
         <v>14</v>
       </c>
-      <c r="N57" s="1">
-        <v>2</v>
+      <c r="N57" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.35">
@@ -2977,8 +2986,8 @@
       <c r="M58" s="1">
         <v>15</v>
       </c>
-      <c r="N58" s="1">
-        <v>3</v>
+      <c r="N58" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.35">
@@ -3021,8 +3030,8 @@
       <c r="M59" s="1">
         <v>16</v>
       </c>
-      <c r="N59" s="1">
-        <v>1</v>
+      <c r="N59" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.35">
@@ -3065,8 +3074,8 @@
       <c r="M60" s="1">
         <v>17</v>
       </c>
-      <c r="N60" s="1">
-        <v>2</v>
+      <c r="N60" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.35">
@@ -3109,8 +3118,8 @@
       <c r="M61" s="1">
         <v>18</v>
       </c>
-      <c r="N61" s="1">
-        <v>3</v>
+      <c r="N61" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.35">
@@ -3153,8 +3162,8 @@
       <c r="M62" s="1">
         <v>19</v>
       </c>
-      <c r="N62" s="1">
-        <v>1</v>
+      <c r="N62" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.35">
@@ -3197,8 +3206,8 @@
       <c r="M63" s="1">
         <v>20</v>
       </c>
-      <c r="N63" s="1">
-        <v>2</v>
+      <c r="N63" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.35">
@@ -3241,8 +3250,8 @@
       <c r="M64" s="1">
         <v>21</v>
       </c>
-      <c r="N64" s="1">
-        <v>3</v>
+      <c r="N64" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.35">
@@ -3285,8 +3294,8 @@
       <c r="M65" s="1">
         <v>1</v>
       </c>
-      <c r="N65" s="1">
-        <v>1</v>
+      <c r="N65" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.35">
@@ -3329,8 +3338,8 @@
       <c r="M66" s="1">
         <v>2</v>
       </c>
-      <c r="N66" s="1">
-        <v>2</v>
+      <c r="N66" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.35">
@@ -3373,8 +3382,8 @@
       <c r="M67" s="1">
         <v>3</v>
       </c>
-      <c r="N67" s="1">
-        <v>3</v>
+      <c r="N67" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.35">
@@ -3417,8 +3426,8 @@
       <c r="M68" s="1">
         <v>4</v>
       </c>
-      <c r="N68" s="1">
-        <v>1</v>
+      <c r="N68" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.35">
@@ -3461,8 +3470,8 @@
       <c r="M69" s="1">
         <v>5</v>
       </c>
-      <c r="N69" s="1">
-        <v>2</v>
+      <c r="N69" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.35">
@@ -3505,8 +3514,8 @@
       <c r="M70" s="1">
         <v>6</v>
       </c>
-      <c r="N70" s="1">
-        <v>3</v>
+      <c r="N70" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.35">
@@ -3549,8 +3558,8 @@
       <c r="M71" s="1">
         <v>7</v>
       </c>
-      <c r="N71" s="1">
-        <v>1</v>
+      <c r="N71" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.35">
@@ -3593,8 +3602,8 @@
       <c r="M72" s="1">
         <v>8</v>
       </c>
-      <c r="N72" s="1">
-        <v>2</v>
+      <c r="N72" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.35">
@@ -3637,8 +3646,8 @@
       <c r="M73" s="1">
         <v>9</v>
       </c>
-      <c r="N73" s="1">
-        <v>3</v>
+      <c r="N73" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.35">
@@ -3681,8 +3690,8 @@
       <c r="M74" s="1">
         <v>10</v>
       </c>
-      <c r="N74" s="1">
-        <v>1</v>
+      <c r="N74" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.35">
@@ -3725,8 +3734,8 @@
       <c r="M75" s="1">
         <v>11</v>
       </c>
-      <c r="N75" s="1">
-        <v>2</v>
+      <c r="N75" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.35">
@@ -3769,8 +3778,8 @@
       <c r="M76" s="1">
         <v>12</v>
       </c>
-      <c r="N76" s="1">
-        <v>3</v>
+      <c r="N76" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.35">
@@ -3813,8 +3822,8 @@
       <c r="M77" s="1">
         <v>13</v>
       </c>
-      <c r="N77" s="1">
-        <v>1</v>
+      <c r="N77" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.35">
@@ -3857,8 +3866,8 @@
       <c r="M78" s="1">
         <v>14</v>
       </c>
-      <c r="N78" s="1">
-        <v>2</v>
+      <c r="N78" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.35">
@@ -3901,8 +3910,8 @@
       <c r="M79" s="1">
         <v>15</v>
       </c>
-      <c r="N79" s="1">
-        <v>3</v>
+      <c r="N79" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.35">
@@ -3945,8 +3954,8 @@
       <c r="M80" s="1">
         <v>16</v>
       </c>
-      <c r="N80" s="1">
-        <v>1</v>
+      <c r="N80" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.35">
@@ -3989,8 +3998,8 @@
       <c r="M81" s="1">
         <v>17</v>
       </c>
-      <c r="N81" s="1">
-        <v>2</v>
+      <c r="N81" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.35">
@@ -4033,8 +4042,8 @@
       <c r="M82" s="1">
         <v>18</v>
       </c>
-      <c r="N82" s="1">
-        <v>3</v>
+      <c r="N82" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.35">
@@ -4077,8 +4086,8 @@
       <c r="M83" s="1">
         <v>19</v>
       </c>
-      <c r="N83" s="1">
-        <v>1</v>
+      <c r="N83" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.35">
@@ -4121,8 +4130,8 @@
       <c r="M84" s="1">
         <v>20</v>
       </c>
-      <c r="N84" s="1">
-        <v>2</v>
+      <c r="N84" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.35">
@@ -4165,8 +4174,8 @@
       <c r="M85" s="1">
         <v>21</v>
       </c>
-      <c r="N85" s="1">
-        <v>3</v>
+      <c r="N85" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
